--- a/Excel Report Automation/Workbooks/Example 13.xlsx
+++ b/Excel Report Automation/Workbooks/Example 13.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,14 +16,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00283747"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="4">
@@ -42,7 +49,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000ff00"/>
-        <bgColor rgb="0000ff00"/>
+        <bgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,17 +63,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,14 +450,393 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="4" t="n">
         <v>-5</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="5" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.0191451469278718</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.0162953254696374</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.0181833813351675</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.0154099468040191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.0246559394619767</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.0167586430774224</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.0155246039031009</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.0124184547669574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.0143622389566027</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.0170289300474513</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.0198291756029651</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.0141676505312868</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0.0121871362048895</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.0121841641807136</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0154108372984871</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.0283256399496434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.0156430660409441</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.0244090269872094</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0381434874979571</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.0213462628297964</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.0229654747225649</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.0319421425342774</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0301941889326911</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.0226480342413333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.015826819668496</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.0102322027886163</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.008210890233361899</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.0102603943420489</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.0037389621065471</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>-0.0006868857656133</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>-0.0112356580130069</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>-0.0031549958557257</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-0.0072955502507844</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-0.0253167977087892</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>-0.0315185452126185</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>-0.0092738357615136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.0073960650622597</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>-0.0264131463477587</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>-0.026304936962413</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>-0.0075934049311753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>-0.0120107303987319</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>-0.009009564949089799</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.0095273678311227</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>-0.0072477177399458</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>-0.027587063903818</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>-0.0174115842944314</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.0073156457276628</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.0044220651366966</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>-0.0106047946526126</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>-0.0042224243211641</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.0129166938482616</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.0079860887486313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.0052073349945689</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.0155728587319243</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.0155218275700201</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.0081661582077594</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0.008803032155520101</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0.0190885953217789</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.0143604685734675</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.0083536067063338</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0.010144759025638</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.0172081378953123</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.015247956094939</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.008805171645118201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.009170257430118201</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.019296036785636</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.0178566633549044</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.009101461510051</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.008679511646754399</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.0245185703548196</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.016898985554909</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.009602706669651699</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.014784515683907</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.0223635966296773</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.0149154474634238</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.0059440232144529</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0.0109803191736843</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.0187077177964931</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.0116554855322899</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.008439949092370501</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>